--- a/SuspensionDev/v0.1/TableOfRequirements.xlsx
+++ b/SuspensionDev/v0.1/TableOfRequirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Potamon\SuspensionDev\v0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52403F95-7681-4073-AB86-F47EBEF1479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B9551-A327-47FE-9B04-7037F2417BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4035" windowWidth="13740" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>В среднем положении</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5 </t>
+  </si>
+  <si>
+    <t>CG height (Центр тяжести)</t>
   </si>
 </sst>
 </file>
@@ -425,12 +431,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -528,7 +534,7 @@
         <v>89</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G6:G21" si="0">F7*8</f>
+        <f t="shared" ref="G7:G21" si="0">F7*8</f>
         <v>712</v>
       </c>
     </row>
@@ -649,37 +655,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24">
         <f>IF(((B15-30)^2+(B16)^2)^(1/2)&gt;15,1,0)</f>
         <v>1</v>
